--- a/Minami/Tools Excel/SetData.xlsx
+++ b/Minami/Tools Excel/SetData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\MinamiLaneFrog\minamifrog\Minami\Tools Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\MinamiFrog\Minami\Tools Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="11460" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="11460" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Building" sheetId="21" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="39">
   <si>
     <t>id</t>
   </si>
@@ -124,9 +124,6 @@
     <t>Satisfaction</t>
   </si>
   <si>
-    <t>Villagers</t>
-  </si>
-  <si>
     <t>Beauty</t>
   </si>
   <si>
@@ -149,9 +146,6 @@
   </si>
   <si>
     <t>Villagers[]</t>
-  </si>
-  <si>
-    <t>5|0|0</t>
   </si>
 </sst>
 </file>
@@ -485,7 +479,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,13 +575,14 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -598,10 +593,10 @@
         <v>30</v>
       </c>
       <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
         <v>31</v>
-      </c>
-      <c r="D1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -673,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,21 +688,18 @@
         <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
         <v>32</v>
-      </c>
-      <c r="E1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -792,19 +784,19 @@
         <v>29</v>
       </c>
       <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>37</v>
-      </c>
-      <c r="F1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -916,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
